--- a/template/KOK1606_Gradients1_Cobalamin_example.xlsx
+++ b/template/KOK1606_Gradients1_Cobalamin_example.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="1" state="visible" r:id="rId2"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="62">
   <si>
     <t xml:space="preserve">Time</t>
   </si>
@@ -124,9 +124,6 @@
   </si>
   <si>
     <t xml:space="preserve">dataset_acknowledgement</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dataset_doi</t>
   </si>
   <si>
     <t xml:space="preserve">dataset_history</t>
@@ -223,7 +220,7 @@
     <numFmt numFmtId="166" formatCode="0.00E+00"/>
     <numFmt numFmtId="167" formatCode="M/D/YYYY"/>
   </numFmts>
-  <fonts count="8">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -255,25 +252,11 @@
       <charset val="1"/>
     </font>
     <font>
-      <u val="single"/>
-      <sz val="11"/>
-      <color rgb="FF0563C1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -293,7 +276,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="21">
+  <cellStyleXfs count="20">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -317,11 +300,8 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="8">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -350,88 +330,19 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
-  <cellStyles count="7">
+  <cellStyles count="6">
     <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
     <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
     <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
     <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
     <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
     <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
-    <cellStyle name="*unknown*" xfId="20" builtinId="8" customBuiltin="false"/>
   </cellStyles>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="FF000000"/>
-      <rgbColor rgb="FFFFFFFF"/>
-      <rgbColor rgb="FFFF0000"/>
-      <rgbColor rgb="FF00FF00"/>
-      <rgbColor rgb="FF0000FF"/>
-      <rgbColor rgb="FFFFFF00"/>
-      <rgbColor rgb="FFFF00FF"/>
-      <rgbColor rgb="FF00FFFF"/>
-      <rgbColor rgb="FF800000"/>
-      <rgbColor rgb="FF008000"/>
-      <rgbColor rgb="FF000080"/>
-      <rgbColor rgb="FF808000"/>
-      <rgbColor rgb="FF800080"/>
-      <rgbColor rgb="FF008080"/>
-      <rgbColor rgb="FFC0C0C0"/>
-      <rgbColor rgb="FF808080"/>
-      <rgbColor rgb="FF9999FF"/>
-      <rgbColor rgb="FF993366"/>
-      <rgbColor rgb="FFFFFFCC"/>
-      <rgbColor rgb="FFCCFFFF"/>
-      <rgbColor rgb="FF660066"/>
-      <rgbColor rgb="FFFF8080"/>
-      <rgbColor rgb="FF0563C1"/>
-      <rgbColor rgb="FFCCCCFF"/>
-      <rgbColor rgb="FF000080"/>
-      <rgbColor rgb="FFFF00FF"/>
-      <rgbColor rgb="FFFFFF00"/>
-      <rgbColor rgb="FF00FFFF"/>
-      <rgbColor rgb="FF800080"/>
-      <rgbColor rgb="FF800000"/>
-      <rgbColor rgb="FF008080"/>
-      <rgbColor rgb="FF0000FF"/>
-      <rgbColor rgb="FF00CCFF"/>
-      <rgbColor rgb="FFCCFFFF"/>
-      <rgbColor rgb="FFCCFFCC"/>
-      <rgbColor rgb="FFFFFF99"/>
-      <rgbColor rgb="FF99CCFF"/>
-      <rgbColor rgb="FFFF99CC"/>
-      <rgbColor rgb="FFCC99FF"/>
-      <rgbColor rgb="FFFFCC99"/>
-      <rgbColor rgb="FF3366FF"/>
-      <rgbColor rgb="FF33CCCC"/>
-      <rgbColor rgb="FF99CC00"/>
-      <rgbColor rgb="FFFFCC00"/>
-      <rgbColor rgb="FFFF9900"/>
-      <rgbColor rgb="FFFF6600"/>
-      <rgbColor rgb="FF666699"/>
-      <rgbColor rgb="FF969696"/>
-      <rgbColor rgb="FF003366"/>
-      <rgbColor rgb="FF339966"/>
-      <rgbColor rgb="FF003300"/>
-      <rgbColor rgb="FF333300"/>
-      <rgbColor rgb="FF993300"/>
-      <rgbColor rgb="FF993366"/>
-      <rgbColor rgb="FF333399"/>
-      <rgbColor rgb="FF333333"/>
-    </indexedColors>
-  </colors>
 </styleSheet>
 </file>
 
@@ -442,7 +353,7 @@
   </sheetPr>
   <dimension ref="A1:H39"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="F12" activeCellId="0" sqref="F12"/>
     </sheetView>
   </sheetViews>
@@ -1333,10 +1244,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:M2"/>
+  <dimension ref="A1:AMJ2"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="K1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="M3" activeCellId="0" sqref="M3"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="H1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="I1" activeCellId="0" sqref="I1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1345,15 +1256,16 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="2" style="1" width="46.17"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="82.33"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="47.5"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="7" style="1" width="58.5"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="53.5"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="1" width="46.5"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="1" width="51.83"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="1" width="37.16"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="14" style="1" width="9.17"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="7" style="1" width="58.5"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="53.5"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="46.5"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="1" width="51.83"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="1" width="37.16"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1023" min="13" style="1" width="9.17"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1024" style="0" width="9.14"/>
   </cols>
   <sheetData>
-    <row r="1" s="5" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" s="5" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="5" t="s">
         <v>26</v>
       </c>
@@ -1390,16 +1302,14 @@
       <c r="L1" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="M1" s="5" t="s">
-        <v>38</v>
-      </c>
+      <c r="AMJ1" s="0"/>
     </row>
     <row r="2" s="2" customFormat="true" ht="82.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>39</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>40</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>1</v>
@@ -1408,21 +1318,21 @@
         <v>43721</v>
       </c>
       <c r="E2" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="F2" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="J2" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="I2" s="7"/>
       <c r="K2" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="L2" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="M2" s="2" t="n">
+      <c r="L2" s="2" t="n">
         <v>0</v>
       </c>
+      <c r="AMJ2" s="0"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -1463,34 +1373,34 @@
   <sheetData>
     <row r="1" s="5" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="B1" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="C1" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="D1" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="E1" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="F1" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="G1" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="H1" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="H1" s="5" t="s">
+      <c r="I1" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="I1" s="5" t="s">
+      <c r="J1" s="5" t="s">
         <v>53</v>
-      </c>
-      <c r="J1" s="5" t="s">
-        <v>54</v>
       </c>
       <c r="AMJ1" s="0"/>
     </row>
@@ -1499,28 +1409,28 @@
         <v>4</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="D2" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="E2" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="F2" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="G2" s="2" t="s">
         <v>58</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>59</v>
       </c>
       <c r="H2" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="I2" s="8" t="s">
-        <v>60</v>
+      <c r="I2" s="7" t="s">
+        <v>59</v>
       </c>
       <c r="AMJ2" s="0"/>
     </row>
@@ -1529,28 +1439,28 @@
         <v>5</v>
       </c>
       <c r="B3" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="H3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="I3" s="7" t="s">
         <v>61</v>
-      </c>
-      <c r="C3" s="9" t="s">
-        <v>56</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="G3" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="H3" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="I3" s="8" t="s">
-        <v>62</v>
       </c>
       <c r="AMJ3" s="0"/>
     </row>
